--- a/main/nettoyage/etape3.xlsx
+++ b/main/nettoyage/etape3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B894"/>
+  <dimension ref="A1:B1018"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4804,12 +4804,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>banane</t>
+          <t>zestes</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>banane</t>
+          <t>zestes lime</t>
         </is>
       </c>
     </row>
@@ -4821,19 +4821,19 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>zestes lime</t>
+          <t>zestes</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>zestes</t>
+          <t>sucre canne</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>zestes</t>
+          <t>sucre blanc</t>
         </is>
       </c>
     </row>
@@ -4857,19 +4857,19 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>sucre blanc</t>
+          <t>sucre canne</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>sucre canne</t>
+          <t>les zestes oranges</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>sucre canne</t>
+          <t>feuilles menthe fraîche avec les tiges</t>
         </is>
       </c>
     </row>
@@ -4881,19 +4881,19 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>feuilles menthe fraîche avec les tiges</t>
+          <t>les zestes oranges</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>les zestes oranges</t>
+          <t>eau fleur</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>les zestes oranges</t>
+          <t>pineau château ans</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>pineau château ans</t>
+          <t>eau pétillante</t>
         </is>
       </c>
     </row>
@@ -4953,19 +4953,19 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>eau pétillante</t>
+          <t>eau fleur</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>eau fleur</t>
+          <t>étoile</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>eau fleur</t>
+          <t>les spiritueux</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>les spiritueux</t>
+          <t>étoiles</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>étoiles</t>
+          <t>étoile</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>étoile</t>
+          <t>étoiles</t>
         </is>
       </c>
     </row>
@@ -5032,24 +5032,24 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>étoile</t>
+          <t>tasse fane céleri</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>étoiles</t>
+          <t>tasse fane céleri</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>tasse fane céleri</t>
+          <t>gouttes aromatique</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>tasse fane céleri</t>
+          <t>gouttes sauce piquante</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>gouttes sauce piquante</t>
+          <t>gouttes aromatique</t>
         </is>
       </c>
     </row>
@@ -5092,36 +5092,36 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>gouttes aromatique</t>
+          <t>petit avion en papier</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>gouttes aromatique</t>
+          <t>petit avion en papier</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>petit avion en papier</t>
+          <t>arilles graines grena</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>petit avion en papier</t>
+          <t>arilles graines grena</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>arilles graines grena</t>
+          <t>tasse morceaux concombre</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>arilles graines grena</t>
+          <t>tasse morceaux concombre</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>tasse morceaux concombre</t>
+          <t>tasse concombre coupé en morceaux</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>tasse concombre coupé en morceaux</t>
+          <t>tasse morceaux concombres</t>
         </is>
       </c>
     </row>
@@ -5157,31 +5157,31 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>tasse morceaux concombres</t>
+          <t>tasse concombre coupé en morceaux</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>tasse morceaux concombre</t>
+          <t>confiture ou compote</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>tasse concombre coupé en morceaux</t>
+          <t>confiture ou compote</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>confiture ou compote</t>
+          <t>tranche pêche</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>confiture ou compote</t>
+          <t>tranche croustillant</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>tranche croustillant</t>
+          <t>tranche pêche</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>tranche pêche</t>
+          <t>tranches pêches</t>
         </is>
       </c>
     </row>
@@ -5217,19 +5217,19 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>tranches pêches</t>
+          <t>tranches pêche</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>tranche pêche</t>
+          <t>fleurs camomille ou sachet camomille</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>tranches pêche</t>
+          <t>fleurs camomille ou sachet camomille</t>
         </is>
       </c>
     </row>
@@ -5241,43 +5241,43 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>fleurs camomille ou sachet camomille</t>
+          <t>fleurs camomille ou sachet tisane la camomille</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>fleurs camomille ou sachet camomille</t>
+          <t>mi poire tranchée finement</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>fleurs camomille ou sachet tisane la camomille</t>
+          <t>mi poire tranchée finement</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>mi poire tranchée finement</t>
+          <t>beurre naturel</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>mi poire tranchée finement</t>
+          <t>beurre naturel</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>beurre naturel</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>beurre naturel</t>
+          <t>mi fruit la passion</t>
         </is>
       </c>
     </row>
@@ -5289,19 +5289,19 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>mi fruit la passion</t>
+          <t>mi</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>romarin</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>mi</t>
+          <t>romarin</t>
         </is>
       </c>
     </row>
@@ -5332,72 +5332,72 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>branches romarin</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>romarin</t>
+          <t>branches romarin</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>branches romarin</t>
+          <t>râpée</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>branches romarin</t>
+          <t>râpée</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>râpée</t>
+          <t>pomme</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>râpée</t>
+          <t>pomme</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>tranche déshydraté</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>tranche déshydraté</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>tranche déshydraté</t>
+          <t>tasse poire ou nectar poire</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>tranche déshydraté</t>
+          <t>tasse poire ou nectar poire</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>tasse poire ou nectar poire</t>
+          <t>moulue</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>tasse poire ou nectar poire</t>
+          <t>ou quartiers lime</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ou quartiers lime</t>
+          <t>ou cannelle</t>
         </is>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ou cannelle</t>
+          <t>moulue</t>
         </is>
       </c>
     </row>
@@ -5452,12 +5452,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>moulue</t>
+          <t>tranche poire</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>moulue</t>
+          <t>tranches pomme</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
+          <t>tranches pêche blanche</t>
         </is>
       </c>
     </row>
@@ -5481,19 +5481,19 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>tranches pêche blanche</t>
+          <t>tranche poire</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>tranche poire</t>
+          <t>tasse en</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>tranche poire</t>
+          <t>tasse graines grena</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>tasse graines grena</t>
+          <t>tasse en</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>tasse en</t>
+          <t>tasse et tranchée en</t>
         </is>
       </c>
     </row>
@@ -5529,19 +5529,19 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>tasse et tranchée en</t>
+          <t>tasse naturelles</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>tasse en</t>
+          <t>marasquin</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>tasse naturelles</t>
+          <t>marasquin</t>
         </is>
       </c>
     </row>
@@ -5560,48 +5560,48 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>marasquin</t>
+          <t>traits bitter céleri</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>marasquin</t>
+          <t>traits bitter céleri</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>traits bitter céleri</t>
+          <t>traits solution saline ou pincée fleur sel</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>traits bitter céleri</t>
+          <t>traits solution saline ou pincée fleur sel</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>traits solution saline ou pincée fleur sel</t>
+          <t>absinthe pour rincer le verre</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>traits solution saline ou pincée fleur sel</t>
+          <t>absinthe pour rincer le verre</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>absinthe pour rincer le verre</t>
+          <t>cidre rosé pétillant</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>absinthe pour rincer le verre</t>
+          <t>cidre rosé pétillant</t>
         </is>
       </c>
     </row>
@@ -5625,55 +5625,55 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>cidre rosé pétillant</t>
+          <t>cidre pomme pétillant cidrerie</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>cidre rosé pétillant</t>
+          <t>sachet chai ou mélange</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>cidre pomme pétillant cidrerie</t>
+          <t>sachet chai ou mélange</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>sachet chai ou mélange</t>
+          <t>nuage lait optionnel</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>sachet chai ou mélange</t>
+          <t>nuage lait optionnel</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>nuage lait optionnel</t>
+          <t>feuilles sauge</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>nuage lait optionnel</t>
+          <t>feuilles sauge</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>feuilles sauge</t>
+          <t>petite tranche pamplemousse</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>feuilles sauge</t>
+          <t>petite branche sapin ou cèdre</t>
         </is>
       </c>
     </row>
@@ -5685,55 +5685,55 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>petite branche sapin ou cèdre</t>
+          <t>petite tranche pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>petite tranche pamplemousse</t>
+          <t>fines herbes au choix</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>petite tranche pamplemousse</t>
+          <t>fines herbes au choix</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>fines herbes au choix</t>
+          <t>cidre mousseux avec ou sans alcool</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>fines herbes au choix</t>
+          <t>cidre mousseux avec ou sans alcool</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>cidre mousseux avec ou sans alcool</t>
+          <t>mélange maison sel et feuilles pour</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>cidre mousseux avec ou sans alcool</t>
+          <t>mélange maison sel et feuilles pour</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>mélange maison sel et feuilles pour</t>
+          <t>fraise</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>mélange maison sel et feuilles pour</t>
+          <t>fraise</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>framboise</t>
         </is>
       </c>
     </row>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>framboise</t>
+          <t>fraise</t>
         </is>
       </c>
     </row>
@@ -5776,60 +5776,60 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>tasse fleurs séchées</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>tasse fleurs séchées</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>tasse fleurs séchées</t>
+          <t>essentielle</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>tasse fleurs séchées</t>
+          <t>essentielle</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>essentielle</t>
+          <t>eau aromatisée au thé bois</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>essentielle</t>
+          <t>eau aromatisée au thé bois</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>eau aromatisée au thé bois</t>
+          <t>tranches pamplemousse</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>eau aromatisée au thé bois</t>
+          <t>tranches pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>tranches pamplemousse</t>
+          <t>pétillante</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>tranches pamplemousse</t>
+          <t>pétillante ou gin atypique</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>pétillante ou gin atypique</t>
+          <t>pétillante</t>
         </is>
       </c>
     </row>
@@ -5884,12 +5884,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>pétillante</t>
+          <t>soda tonique</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>pétillante</t>
+          <t>soda au sodas</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>soda au sodas</t>
+          <t>soda tonique</t>
         </is>
       </c>
     </row>
@@ -5944,12 +5944,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>soda tonique</t>
+          <t>chai fous</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>soda tonique</t>
+          <t>chai infusé</t>
         </is>
       </c>
     </row>
@@ -5961,19 +5961,19 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>chai infusé</t>
+          <t>chai fous</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>chai fous</t>
+          <t>sel pour givrer</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>chai fous</t>
+          <t>sel pour givrer</t>
         </is>
       </c>
     </row>
@@ -6009,55 +6009,55 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>sel pour givrer</t>
+          <t>sel mer pour givrer</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>sel pour givrer</t>
+          <t>barbe papa</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>sel mer pour givrer</t>
+          <t>barbe papa</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>barbe papa</t>
+          <t>menthe pour les verres</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>barbe papa</t>
+          <t>menthe pour les verres</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>menthe pour les verres</t>
+          <t>raisins verts</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>menthe pour les verres</t>
+          <t>raisins verts</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>raisins verts</t>
+          <t>thé fleur</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>raisins verts</t>
+          <t>thé au jasmin</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>thé au jasmin</t>
+          <t>thé noir au jasmin</t>
         </is>
       </c>
     </row>
@@ -6081,19 +6081,19 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>thé noir au jasmin</t>
+          <t>thé fleur</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>thé fleur</t>
+          <t>gingembre</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>thé fleur</t>
+          <t>gingembre en poudre</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>gingembre en poudre</t>
+          <t>gingembre</t>
         </is>
       </c>
     </row>
@@ -6124,24 +6124,24 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>au jasmin et litchi</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>au jasmin et litchi</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>au jasmin et litchi</t>
+          <t>thé</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>au jasmin et litchi</t>
+          <t>thé noir</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>thé noir</t>
+          <t>thé refroidi</t>
         </is>
       </c>
     </row>
@@ -6165,43 +6165,43 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>thé refroidi</t>
+          <t>thé</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>cardamome moulue</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>thé</t>
+          <t>cardamome moulue</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>cardamome moulue</t>
+          <t>dattes fraîches dénoyautées</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>cardamome moulue</t>
+          <t>dattes fraîches dénoyautées</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>dattes fraîches dénoyautées</t>
+          <t>sel pour le givre</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>dattes fraîches dénoyautées</t>
+          <t>sel épicé la pincée pour le givre</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>sel épicé la pincée pour le givre</t>
+          <t>sel pour le givre</t>
         </is>
       </c>
     </row>
@@ -6225,31 +6225,31 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>sel pour le givre</t>
+          <t>sel céleri pour givrer</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>sel pour le givre</t>
+          <t>passoire fine</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>sel céleri pour givrer</t>
+          <t>passoire fine</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>passoire fine</t>
+          <t>framboises</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>passoire fine</t>
+          <t>fraises du et coupées en</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>fraises du et coupées en</t>
+          <t>framboises</t>
         </is>
       </c>
     </row>
@@ -6280,12 +6280,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>framboises</t>
+          <t>cube sucre</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>framboises</t>
+          <t>cube sucre</t>
         </is>
       </c>
     </row>
@@ -6297,19 +6297,19 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>cube sucre</t>
+          <t>cube sucre canne</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>cube sucre</t>
+          <t>liqueur thé du labrador</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>cube sucre canne</t>
+          <t>liqueur thé du labrador</t>
         </is>
       </c>
     </row>
@@ -6328,12 +6328,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>liqueur thé du labrador</t>
+          <t>tête menthe</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>liqueur thé du labrador</t>
+          <t>têtes menthe pour les verres</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>têtes menthe pour les verres</t>
+          <t>tête menthe</t>
         </is>
       </c>
     </row>
@@ -6357,19 +6357,19 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>tête menthe</t>
+          <t>têtes menthe</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>tête menthe</t>
+          <t>grain café</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>têtes menthe</t>
+          <t>grains café</t>
         </is>
       </c>
     </row>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>grains café</t>
+          <t>graines cardamome</t>
         </is>
       </c>
     </row>
@@ -6393,19 +6393,19 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>graines cardamome</t>
+          <t>grain café</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>grain café</t>
+          <t>soda au sodas</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>grain café</t>
+          <t>soda tonique la fleur sureau sodas</t>
         </is>
       </c>
     </row>
@@ -6417,19 +6417,19 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>soda tonique la fleur sureau sodas</t>
+          <t>soda au sodas</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>soda au sodas</t>
+          <t>ruban concombre</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>soda au sodas</t>
+          <t>rubans concombre roulés</t>
         </is>
       </c>
     </row>
@@ -6441,67 +6441,67 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>rubans concombre roulés</t>
+          <t>ruban concombre</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ruban concombre</t>
+          <t>tête basilic</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>ruban concombre</t>
+          <t>tête basilic</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>tête basilic</t>
+          <t>saveur fruit la passion</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>tête basilic</t>
+          <t>saveur fruit la passion</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>saveur fruit la passion</t>
+          <t>tasse fraises du</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>saveur fruit la passion</t>
+          <t>tasse fraises du</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>tasse fraises du</t>
+          <t>ombrelle papier</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>tasse fraises du</t>
+          <t>ombrelle papier</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ombrelle papier</t>
+          <t>fleur comestible</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>ombrelle papier</t>
+          <t>fleurs déshydratées</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>fleurs déshydratées</t>
+          <t>fleurs comestibles</t>
         </is>
       </c>
     </row>
@@ -6525,67 +6525,67 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>fleurs comestibles</t>
+          <t>fleur comestible</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>fleur comestible</t>
+          <t>soda tonique préférablement aromatisé la fleur sureau</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>fleur comestible</t>
+          <t>soda tonique préférablement aromatisé la fleur sureau</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>soda tonique préférablement aromatisé la fleur sureau</t>
+          <t>brin</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>soda tonique préférablement aromatisé la fleur sureau</t>
+          <t>brin</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>brin</t>
+          <t>fleur comestible ou boules melon</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>brin</t>
+          <t>fleur comestible ou boules melon</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>fleur comestible ou boules melon</t>
+          <t>menthe mi lime flambée</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>fleur comestible ou boules melon</t>
+          <t>menthe mi lime flambée</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>menthe mi lime flambée</t>
+          <t>épice pour le givre</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>menthe mi lime flambée</t>
+          <t>épice pour le givre</t>
         </is>
       </c>
     </row>
@@ -6597,43 +6597,43 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>épice pour le givre</t>
+          <t>épices steak pour givrer</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>épice pour le givre</t>
+          <t>quartier lime</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>épices steak pour givrer</t>
+          <t>quartier lime</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>quartier lime</t>
+          <t>cuillère crème glacée sorbet la noix coco</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>quartier lime</t>
+          <t>cuillère crème glacée sorbet la noix coco</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>cuillère crème glacée sorbet la noix coco</t>
+          <t>chips noix coco</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>cuillère crème glacée sorbet la noix coco</t>
+          <t>chips noix coco</t>
         </is>
       </c>
     </row>
@@ -6652,12 +6652,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>chips noix coco</t>
+          <t>déshydraté</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>chips noix coco</t>
+          <t>déshydratée</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>déshydratée</t>
+          <t>déshydraté</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>déshydraté</t>
+          <t>déshydratée</t>
         </is>
       </c>
     </row>
@@ -6700,24 +6700,24 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>déshydraté</t>
+          <t>cacao en poudre</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>déshydratée</t>
+          <t>cacao en poudre</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>cacao en poudre</t>
+          <t>tasse sucre</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>cacao en poudre</t>
+          <t>tasse cerise dénoyautée et coupée</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>tasse cerise dénoyautée et coupée</t>
+          <t>tasse sucre</t>
         </is>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>tasse sucre</t>
+          <t>tasse crème</t>
         </is>
       </c>
     </row>
@@ -6753,19 +6753,19 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>tasse crème</t>
+          <t>tasse sucre</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>tasse sucre</t>
+          <t>thé piment</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>tasse sucre</t>
+          <t>thé sirop simple</t>
         </is>
       </c>
     </row>
@@ -6777,43 +6777,43 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>thé sirop simple</t>
+          <t>thé piment</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>thé piment</t>
+          <t>mexicaine sol</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>thé piment</t>
+          <t>mexicaine sol</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>mexicaine sol</t>
+          <t>sel et paprika fumé pour le givre</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>mexicaine sol</t>
+          <t>sel et paprika fumé pour le givre</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>sel et paprika fumé pour le givre</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>sel et paprika fumé pour le givre</t>
+          <t>pincée fleur sel</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>pincée fleur sel</t>
+          <t>pincée sel</t>
         </is>
       </c>
     </row>
@@ -6861,19 +6861,19 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>pincée sel</t>
+          <t>pincée</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>tasse fraises</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>pincée</t>
+          <t>tasse jus lime frais</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>tasse jus lime frais</t>
+          <t>tasse jus pamplemousse frais</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>tasse jus pamplemousse frais</t>
+          <t>tasse jus citron frais</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>tasse jus citron frais</t>
+          <t>tasse fraises</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>tasse fraises</t>
+          <t>tasse fraîches</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>tasse fraîches</t>
+          <t>tasse framboise</t>
         </is>
       </c>
     </row>
@@ -6945,19 +6945,19 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>tasse framboise</t>
+          <t>tasse fraises</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>tasse fraises</t>
+          <t>tranche fraise</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>tasse fraises</t>
+          <t>tranche pamplemousse</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>tranche pamplemousse</t>
+          <t>tranche fraise</t>
         </is>
       </c>
     </row>
@@ -6993,19 +6993,19 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>tranche fraise</t>
+          <t>tranches gingembre frais</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>tranche fraise</t>
+          <t>art</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>tranches gingembre frais</t>
+          <t>chartreuse verte</t>
         </is>
       </c>
     </row>
@@ -7017,19 +7017,19 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>chartreuse verte</t>
+          <t>art</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>ou zeste citron</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>ou zeste citron</t>
+          <t>boules cantaloup</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>boules cantaloup</t>
+          <t>ou émulsifiant</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>ou émulsifiant</t>
+          <t>ou</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>bouillante</t>
         </is>
       </c>
     </row>
@@ -7101,31 +7101,31 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>bouillante</t>
+          <t>ou gouttes rose</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ou</t>
+          <t>quartier épice steak</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>ou gouttes rose</t>
+          <t>quartier épice steak</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>quartier épice steak</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>quartier épice steak</t>
+          <t>sirop noisette maison ou du commerce</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>sirop noisette maison ou du commerce</t>
+          <t>sirop produits artisanaux</t>
         </is>
       </c>
     </row>
@@ -7149,31 +7149,31 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>sirop produits artisanaux</t>
+          <t>sirop</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>fumée</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>sirop</t>
+          <t>fumée</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>fumée</t>
+          <t>zeste</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>fumée</t>
+          <t>zeste citron</t>
         </is>
       </c>
     </row>
@@ -7185,31 +7185,31 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>zeste citron</t>
+          <t>zeste</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>yogourt la noix coco</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>zeste</t>
+          <t>yogourt la noix coco</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>yogourt la noix coco</t>
+          <t>la</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>yogourt la noix coco</t>
+          <t>bouillante</t>
         </is>
       </c>
     </row>
@@ -7221,31 +7221,31 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>bouillante</t>
+          <t>la</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>une pincée sel</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>une pincée sel</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>une pincée sel</t>
+          <t>vin mousseux</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>une pincée sel</t>
+          <t>vin mousseux blanquette domaine</t>
         </is>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>vin mousseux blanquette domaine</t>
+          <t>vin mousseux ou champagne</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>vin mousseux ou champagne</t>
+          <t>vin mousseux blanquette</t>
         </is>
       </c>
     </row>
@@ -7281,7 +7281,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>vin mousseux blanquette</t>
+          <t>vin mousseux</t>
         </is>
       </c>
     </row>
@@ -7293,19 +7293,19 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>vin mousseux</t>
+          <t>vin mousseux cava</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>vin mousseux</t>
+          <t>sanguine</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>vin mousseux cava</t>
+          <t>sanguine</t>
         </is>
       </c>
     </row>
@@ -7324,12 +7324,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>sanguine</t>
+          <t>céréales type</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>sanguine</t>
+          <t>céréales type</t>
         </is>
       </c>
     </row>
@@ -7348,12 +7348,12 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>céréales type</t>
+          <t>tisane rhume biologique</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>céréales type</t>
+          <t>tisane infusée et refroidie</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>tisane infusée et refroidie</t>
+          <t>tisane la camomille infusée et refroidie</t>
         </is>
       </c>
     </row>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>tisane la camomille infusée et refroidie</t>
+          <t>tisane hibiscus et passion infusée et refroidie</t>
         </is>
       </c>
     </row>
@@ -7389,31 +7389,31 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>tisane hibiscus et passion infusée et refroidie</t>
+          <t>tisane rhume biologique</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>tisane rhume biologique</t>
+          <t>bâton réglisse coupé en morceaux</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>tisane rhume biologique</t>
+          <t>bâton réglisse coupé en morceaux</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>bâton réglisse coupé en morceaux</t>
+          <t>séché</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>bâton réglisse coupé en morceaux</t>
+          <t>séchée</t>
         </is>
       </c>
     </row>
@@ -7425,31 +7425,31 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>séchée</t>
+          <t>séché</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>séché</t>
+          <t>réglisse</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>séché</t>
+          <t>réglisse</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>réglisse</t>
+          <t>miel</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>réglisse</t>
+          <t>miel local</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>miel local</t>
+          <t>miel</t>
         </is>
       </c>
     </row>
@@ -7480,12 +7480,12 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>miel</t>
+          <t>citron déshydraté</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>miel</t>
+          <t>citronnelle fraîche coupés en tronçon pouce</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>citronnelle fraîche coupés en tronçon pouce</t>
+          <t>citron déshydratée</t>
         </is>
       </c>
     </row>
@@ -7509,19 +7509,19 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>citron déshydratée</t>
+          <t>citron déshydraté</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>citron déshydraté</t>
+          <t>saumure</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>citron déshydraté</t>
+          <t>saumure cornichon</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>saumure cornichon</t>
+          <t>saumure</t>
         </is>
       </c>
     </row>
@@ -7552,36 +7552,36 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>saumure</t>
+          <t>poivre noir fraîchement moulu</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>saumure</t>
+          <t>poivre noir fraîchement moulu</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>poivre noir fraîchement moulu</t>
+          <t>au chocolat bitter</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>poivre noir fraîchement moulu</t>
+          <t>au chocolat bitter</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>au chocolat bitter</t>
+          <t>pincée moulue</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>au chocolat bitter</t>
+          <t>pincée cannelle moulue</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>pincée cannelle moulue</t>
+          <t>pincée gingembre moulue</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>pincée gingembre moulue</t>
+          <t>pincée moulue</t>
         </is>
       </c>
     </row>
@@ -7617,19 +7617,19 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>pincée moulue</t>
+          <t>pincée cardamome moulue</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>pincée moulue</t>
+          <t>sucre</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>pincée cardamome moulue</t>
+          <t>sucre noix coco ou sucre canne</t>
         </is>
       </c>
     </row>
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>sucre noix coco ou sucre canne</t>
+          <t>sucre</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>sucre glace</t>
         </is>
       </c>
     </row>
@@ -7665,19 +7665,19 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>sucre glace</t>
+          <t>sucre</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>noix râpée</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>noix coco râpée</t>
         </is>
       </c>
     </row>
@@ -7689,19 +7689,19 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>noix coco râpée</t>
+          <t>noix râpée</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>noix râpée</t>
+          <t>pêche</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>noix râpée</t>
+          <t>pêche enrobée tranche</t>
         </is>
       </c>
     </row>
@@ -7713,19 +7713,19 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>pêche enrobée tranche</t>
+          <t>pêche</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>pêche</t>
+          <t>poivre rose</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>pêche</t>
+          <t>poivre rose</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7756,12 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>poivre rose</t>
+          <t>grains poivre rose concassés</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>poivre rose</t>
+          <t>grains poivre rose concassés</t>
         </is>
       </c>
     </row>
@@ -7780,24 +7780,24 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>grains poivre rose concassés</t>
+          <t>tranche cantaloup</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>grains poivre rose concassés</t>
+          <t>tranche cantaloup</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>tranche cantaloup</t>
+          <t>piment oiseau épépiné</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>tranche cantaloup</t>
+          <t>piment oiseau épépiné</t>
         </is>
       </c>
     </row>
@@ -7809,31 +7809,31 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>piment oiseau épépiné</t>
+          <t>piment oiseau coupé en morceaux</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>piment oiseau épépiné</t>
+          <t>effilées</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>piment oiseau coupé en morceaux</t>
+          <t>effilées</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>effilées</t>
+          <t>chocolat râpé</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>effilées</t>
+          <t>chocolat noir fondu pour givrer</t>
         </is>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>chocolat noir fondu pour givrer</t>
+          <t>chocolat noir râpé</t>
         </is>
       </c>
     </row>
@@ -7857,19 +7857,19 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>chocolat noir râpé</t>
+          <t>chocolat râpé</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>chocolat râpé</t>
+          <t>rose</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>chocolat râpé</t>
+          <t>rose déshydratée</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>rose déshydratée</t>
+          <t>rose</t>
         </is>
       </c>
     </row>
@@ -7900,24 +7900,24 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>cidre pomme pétillant ou vin mousseux</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>rose</t>
+          <t>cidre pomme pétillant ou vin mousseux</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>cidre pomme pétillant ou vin mousseux</t>
+          <t>traits sauce anglaise</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>cidre pomme pétillant ou vin mousseux</t>
+          <t>traits sauce piquante</t>
         </is>
       </c>
     </row>
@@ -7929,19 +7929,19 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>traits sauce piquante</t>
+          <t>traits sauce anglaise</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>traits sauce anglaise</t>
+          <t>un tour moulin poivre</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>traits sauce anglaise</t>
+          <t>moulin ou pincée sel et poivre</t>
         </is>
       </c>
     </row>
@@ -7953,43 +7953,43 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>moulin ou pincée sel et poivre</t>
+          <t>un tour moulin poivre</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>un tour moulin poivre</t>
+          <t>concombres et saupoudrées steak</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>un tour moulin poivre</t>
+          <t>concombres et saupoudrées steak</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>concombres et saupoudrées steak</t>
+          <t>persil plat</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>concombres et saupoudrées steak</t>
+          <t>persil plat</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>persil plat</t>
+          <t>céleri</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>persil plat</t>
+          <t>céleri</t>
         </is>
       </c>
     </row>
@@ -8020,36 +8020,36 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>petits quartiers lime</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>petits quartiers lime</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>petits quartiers lime</t>
+          <t>concombre trempée dans le miel</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>petits quartiers lime</t>
+          <t>concombre trempée dans le miel</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>concombre trempée dans le miel</t>
+          <t>bière type</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>concombre trempée dans le miel</t>
+          <t>bière type session</t>
         </is>
       </c>
     </row>
@@ -8061,19 +8061,19 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>bière type session</t>
+          <t>bière type</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>bière type</t>
+          <t>tranche pomme</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>bière type</t>
+          <t>tranche pomme verte</t>
         </is>
       </c>
     </row>
@@ -8085,19 +8085,19 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>tranche pomme verte</t>
+          <t>tranche pomme</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>tranche pomme</t>
+          <t>tranchées</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>tranche pomme</t>
+          <t>tranche gingembre cristallisé</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>tranche gingembre cristallisé</t>
+          <t>tranchée finement</t>
         </is>
       </c>
     </row>
@@ -8121,19 +8121,19 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>tranchée finement</t>
+          <t>tranchées</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>tranchées</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>tranchées</t>
+          <t>concombre</t>
         </is>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>concombres</t>
         </is>
       </c>
     </row>
@@ -8241,19 +8241,19 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>concombres</t>
+          <t>concombre</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>tasse rhum la noix coco</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>concombre</t>
+          <t>tasse rhum la noix coco</t>
         </is>
       </c>
     </row>
@@ -8265,19 +8265,19 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>tasse rhum la noix coco</t>
+          <t>tasse lait coco en canne</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>tasse rhum la noix coco</t>
+          <t>surgelés</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>tasse lait coco en canne</t>
+          <t>surgelées</t>
         </is>
       </c>
     </row>
@@ -8289,19 +8289,19 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>surgelées</t>
+          <t>surgelés</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>surgelés</t>
+          <t>sirop simple</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>surgelés</t>
+          <t>sirop simple refroidi</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>sirop simple refroidi</t>
+          <t>sirop simple</t>
         </is>
       </c>
     </row>
@@ -8368,12 +8368,12 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>sirop simple</t>
+          <t>fleur</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>sirop simple</t>
+          <t>fleur</t>
         </is>
       </c>
     </row>
@@ -8404,12 +8404,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>pamplemousse</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>fleur</t>
+          <t>pamplemousse et menthe</t>
         </is>
       </c>
     </row>
@@ -8421,31 +8421,31 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>pamplemousse et menthe</t>
+          <t>pamplemousse</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>fleurs déshydratée</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>fleurs déshydratée</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>fleurs déshydratée</t>
+          <t>clous girofle</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>fleurs déshydratée</t>
+          <t>clous girofle</t>
         </is>
       </c>
     </row>
@@ -8476,12 +8476,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>clous girofle</t>
+          <t>thym</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>clous girofle</t>
+          <t>thym</t>
         </is>
       </c>
     </row>
@@ -8536,12 +8536,12 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>thym</t>
+          <t>fraises</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>thym</t>
+          <t>fraises surgelées</t>
         </is>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>fraises surgelées</t>
+          <t>fraises</t>
         </is>
       </c>
     </row>
@@ -8584,24 +8584,24 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>poudre thé matcha</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>fraises</t>
+          <t>poudre thé matcha</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>poudre thé matcha</t>
+          <t>tasse citronnelle coupée en morceaux</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>poudre thé matcha</t>
+          <t>tasse pomme verte coupée en morceaux</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>tasse pomme verte coupée en morceaux</t>
+          <t>tasse poire asiatique coupée en morceaux</t>
         </is>
       </c>
     </row>
@@ -8625,43 +8625,43 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>tasse poire asiatique coupée en morceaux</t>
+          <t>tasse citronnelle coupée en morceaux</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>tasse citronnelle coupée en morceaux</t>
+          <t>coriandre</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>tasse citronnelle coupée en morceaux</t>
+          <t>coriandre</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>coriandre</t>
+          <t>limona rose</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>coriandre</t>
+          <t>limona rose</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>limona rose</t>
+          <t>garniture lime</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>limona rose</t>
+          <t>garniture tête menthe</t>
         </is>
       </c>
     </row>
@@ -8673,7 +8673,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>garniture tête menthe</t>
+          <t>garniture lime</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>garniture lime</t>
+          <t>garniture menthe</t>
         </is>
       </c>
     </row>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>garniture menthe</t>
+          <t>garniture grillée</t>
         </is>
       </c>
     </row>
@@ -8709,19 +8709,19 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>garniture grillée</t>
+          <t>garniture zeste lime</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>garniture lime</t>
+          <t>garniture mangue</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>garniture zeste lime</t>
+          <t>garniture morceaux noisettes grillées et zeste</t>
         </is>
       </c>
     </row>
@@ -8733,19 +8733,19 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>garniture morceaux noisettes grillées et zeste</t>
+          <t>garniture mangue</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>garniture mangue</t>
+          <t>garniture thym</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>garniture mangue</t>
+          <t>garnitures branches thym pour les verres</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>garnitures branches thym pour les verres</t>
+          <t>garniture thym</t>
         </is>
       </c>
     </row>
@@ -8769,31 +8769,31 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>garniture thym</t>
+          <t>garniture thym citronné</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>garniture thym</t>
+          <t>airelles pomme grena</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>garniture thym citronné</t>
+          <t>airelles pomme grena</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>airelles pomme grena</t>
+          <t>tranches gingembre</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>airelles pomme grena</t>
+          <t>tranches fines curcuma</t>
         </is>
       </c>
     </row>
@@ -8805,19 +8805,19 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>tranches fines curcuma</t>
+          <t>tranches gingembre</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>tranches gingembre</t>
+          <t>au gingembre</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>tranches gingembre</t>
+          <t>au jasmin et refroidi</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>au jasmin et refroidi</t>
+          <t>morceaux gingembre</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>morceaux gingembre</t>
+          <t>au gingembre</t>
         </is>
       </c>
     </row>
@@ -8860,12 +8860,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>au gingembre</t>
+          <t>menthe</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>au gingembre</t>
+          <t>menthe ou sirop simple</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>menthe ou sirop simple</t>
+          <t>menthe</t>
         </is>
       </c>
     </row>
@@ -8992,12 +8992,12 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>menthe</t>
+          <t>limona pétillante</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>menthe</t>
+          <t>limona pétillante</t>
         </is>
       </c>
     </row>
@@ -9028,24 +9028,24 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>limona pétillante</t>
+          <t>menthe bien fournie</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>limona pétillante</t>
+          <t>menthe bien fournie</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>menthe bien fournie</t>
+          <t>garniture</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>menthe bien fournie</t>
+          <t>garniture lime déshydratée</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>garniture lime déshydratée</t>
+          <t>garniture citron</t>
         </is>
       </c>
     </row>
@@ -9069,19 +9069,19 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>garniture citron</t>
+          <t>garniture</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>garniture bleuets</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>garniture</t>
+          <t>poudre cari et noix coco râpée</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>poudre cari et noix coco râpée</t>
+          <t>garniture et noix coco râpée</t>
         </is>
       </c>
     </row>
@@ -9105,43 +9105,43 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>garniture et noix coco râpée</t>
+          <t>garniture bleuets</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>garniture bleuets</t>
+          <t>garniture chocolat noir</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>garniture bleuets</t>
+          <t>garniture chocolat noir</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>garniture chocolat noir</t>
+          <t>vin mousseux brut nature cava</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>garniture chocolat noir</t>
+          <t>vin mousseux brut nature cava</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>vin mousseux brut nature cava</t>
+          <t>coupée en petits cubes</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>vin mousseux brut nature cava</t>
+          <t>coupée en petits cubes</t>
         </is>
       </c>
     </row>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>coupée en petits cubes</t>
+          <t>coupée en tranches minces</t>
         </is>
       </c>
     </row>
@@ -9165,19 +9165,19 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>coupée en tranches minces</t>
+          <t>coupée en petits cubes</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>coupée en petits cubes</t>
+          <t>pomme grena</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>coupée en petits cubes</t>
+          <t>pomme rouge coupée en petits cubes</t>
         </is>
       </c>
     </row>
@@ -9189,19 +9189,19 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>pomme rouge coupée en petits cubes</t>
+          <t>pomme grena</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>pomme grena</t>
+          <t>branches thym</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>pomme grena</t>
+          <t>tranches concombre et concombre pour les verres</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>tranches concombre et concombre pour les verres</t>
+          <t>branches thym pour les verres</t>
         </is>
       </c>
     </row>
@@ -9225,43 +9225,43 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>branches thym pour les verres</t>
+          <t>branches thym</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>branches thym</t>
+          <t>crème glacée la vanille</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>branches thym</t>
+          <t>crème glacée la vanille</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>crème glacée la vanille</t>
+          <t>chocolat noir</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>crème glacée la vanille</t>
+          <t>chocolat noir</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>chocolat noir</t>
+          <t>cerise terre</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>chocolat noir</t>
+          <t>cerise marasquin</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>cerise marasquin</t>
+          <t>cerise marasquin tranche</t>
         </is>
       </c>
     </row>
@@ -9285,19 +9285,19 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>cerise marasquin tranche</t>
+          <t>cerise terre</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>cerise terre</t>
+          <t>soda au gingembre ale</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>cerise terre</t>
+          <t>soda au gingembre ale</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>soda au gingembre ale</t>
+          <t>soda tonique au concombre sodas</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>soda tonique au concombre sodas</t>
+          <t>soda au gingembre ale</t>
         </is>
       </c>
     </row>
@@ -9364,12 +9364,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>soda au gingembre ale</t>
+          <t>garniture menthe</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>soda au gingembre ale</t>
+          <t>garniture ruban concombre et tête menthe</t>
         </is>
       </c>
     </row>
@@ -9381,19 +9381,19 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>garniture ruban concombre et tête menthe</t>
+          <t>garniture menthe</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>garniture menthe</t>
+          <t>garniture sel pour givrer</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>garniture menthe</t>
+          <t>garniture mélange sucre et zestes pour givrer</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>garniture mélange sucre et zestes pour givrer</t>
+          <t>garniture mélange poivre rose et fleur sel pour givrer</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>garniture mélange poivre rose et fleur sel pour givrer</t>
+          <t>garniture sel pour givrer</t>
         </is>
       </c>
     </row>
@@ -9429,19 +9429,19 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>garniture sel pour givrer</t>
+          <t>garniture flocons pour givrer</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>garniture sel pour givrer</t>
+          <t>garniture sauge</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>garniture flocons pour givrer</t>
+          <t>garniture fraises et basilic</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>garniture fraises et basilic</t>
+          <t>garniture basilic et petite omelette</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>garniture basilic et petite omelette</t>
+          <t>garniture brochette framboises</t>
         </is>
       </c>
     </row>
@@ -9477,19 +9477,19 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>garniture brochette framboises</t>
+          <t>garniture sauge</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>garniture sauge</t>
+          <t>garniture pomme</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>garniture sauge</t>
+          <t>garniture tête basilic ou menthe</t>
         </is>
       </c>
     </row>
@@ -9501,55 +9501,55 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>garniture tête basilic ou menthe</t>
+          <t>garniture pomme</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>garniture pomme</t>
+          <t>garniture branche sapin</t>
         </is>
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>garniture pomme</t>
+          <t>garniture branche sapin</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>garniture branche sapin</t>
+          <t>garniture cube grillée</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>garniture branche sapin</t>
+          <t>garniture cube grillée</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>garniture cube grillée</t>
+          <t>cube grillée</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>garniture cube grillée</t>
+          <t>cube grillée</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>cube grillée</t>
+          <t>tasse cubes melon</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>cube grillée</t>
+          <t>tasse mangue jaune coupée en petits cubes</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>tasse mangue jaune coupée en petits cubes</t>
+          <t>tasse cubes melon miel</t>
         </is>
       </c>
     </row>
@@ -9573,19 +9573,19 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>tasse cubes melon miel</t>
+          <t>tasse cubes melon</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>tasse cubes melon</t>
+          <t>feuilles menthe</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>tasse cubes melon</t>
+          <t>feuilles menthe</t>
         </is>
       </c>
     </row>
@@ -9604,12 +9604,12 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>feuilles menthe</t>
+          <t>feuilles pour les verres</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>feuilles menthe</t>
+          <t>feuilles sauge pour les verres</t>
         </is>
       </c>
     </row>
@@ -9621,43 +9621,43 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>feuilles sauge pour les verres</t>
+          <t>feuilles pour les verres</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>feuilles pour les verres</t>
+          <t>garniture pince homard salicornes et citron</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>feuilles pour les verres</t>
+          <t>garniture pince homard salicornes et citron</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>garniture pince homard salicornes et citron</t>
+          <t>pince homard</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>garniture pince homard salicornes et citron</t>
+          <t>pince homard</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>pince homard</t>
+          <t>gingembre frais</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>pince homard</t>
+          <t>gingembre frais</t>
         </is>
       </c>
     </row>
@@ -9676,12 +9676,12 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>gingembre frais</t>
+          <t>petit bouquet lilas</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>gingembre frais</t>
+          <t>petite feuille menthe ou basilic</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>petite feuille menthe ou basilic</t>
+          <t>petit bouquet basilic</t>
         </is>
       </c>
     </row>
@@ -9705,31 +9705,31 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>petit bouquet basilic</t>
+          <t>petit bouquet lilas</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>petit bouquet lilas</t>
+          <t>pour les verres</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>petit bouquet lilas</t>
+          <t>pour les verres</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>pour les verres</t>
+          <t>aromatique</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>pour les verres</t>
+          <t>que blancs fermes</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>que blancs fermes</t>
+          <t>aromatique</t>
         </is>
       </c>
     </row>
@@ -9964,12 +9964,12 @@
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>sucre blanc pour givrer</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>aromatique</t>
+          <t>sucre blanc pour givrer</t>
         </is>
       </c>
     </row>
@@ -9981,19 +9981,19 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>sucre blanc pour givrer</t>
+          <t>sucre blanc et cannelle pour givrer</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>sucre blanc pour givrer</t>
+          <t>lime</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>sucre blanc et cannelle pour givrer</t>
+          <t>lime déshydratée</t>
         </is>
       </c>
     </row>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>lime déshydratée</t>
+          <t>lime flambé</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>lime flambé</t>
+          <t>lime</t>
         </is>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>lime et</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>lime et</t>
+          <t>lime</t>
         </is>
       </c>
     </row>
@@ -10072,36 +10072,36 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>branche romarin pour les verres</t>
         </is>
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>lime</t>
+          <t>branche romarin pour les verres</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>branche romarin pour les verres</t>
+          <t>le jus huître</t>
         </is>
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>branche romarin pour les verres</t>
+          <t>le jus huître</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>le jus huître</t>
+          <t>fraîche</t>
         </is>
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>le jus huître</t>
+          <t>fraîches</t>
         </is>
       </c>
     </row>
@@ -10113,19 +10113,19 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>fraîches</t>
+          <t>fraîche</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>fraîche</t>
+          <t>garniture basilic</t>
         </is>
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>fraîche</t>
+          <t>garniture basilic</t>
         </is>
       </c>
     </row>
@@ -10144,12 +10144,12 @@
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>garniture basilic</t>
+          <t>cubes melon</t>
         </is>
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>garniture basilic</t>
+          <t>cubes cantaloup</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>cubes cantaloup</t>
+          <t>cubes melon</t>
         </is>
       </c>
     </row>
@@ -10192,12 +10192,12 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>cubes melon</t>
+          <t>tranche melon</t>
         </is>
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>cubes melon</t>
+          <t>tranches poire pour les verres</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>tranches poire pour les verres</t>
+          <t>tranches clémentine</t>
         </is>
       </c>
     </row>
@@ -10221,19 +10221,19 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>tranches clémentine</t>
+          <t>tranche melon</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>tranche melon</t>
+          <t>vin blanc</t>
         </is>
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>tranche melon</t>
+          <t>vin blanc</t>
         </is>
       </c>
     </row>
@@ -10336,24 +10336,24 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>vin blanc</t>
+          <t>tranche concombre salé</t>
         </is>
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>vin blanc</t>
+          <t>tranche concombre salé</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>tranche concombre salé</t>
+          <t>soda</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>tranche concombre salé</t>
+          <t>soda tonique léger ou eau pétillante</t>
         </is>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>soda tonique léger ou eau pétillante</t>
+          <t>soda tonique au concombre</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>soda tonique au concombre</t>
+          <t>soda tonique léger sodas</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>soda tonique léger sodas</t>
+          <t>soda tonique léger</t>
         </is>
       </c>
     </row>
@@ -10401,19 +10401,19 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>soda tonique léger</t>
+          <t>soda</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>vin rouge</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>soda</t>
+          <t>vin orange</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>vin orange</t>
+          <t>vin rouge</t>
         </is>
       </c>
     </row>
@@ -10468,12 +10468,12 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>vin rouge</t>
+          <t>citron</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>vin rouge</t>
+          <t>citronnelle</t>
         </is>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>citronnelle</t>
+          <t>citron</t>
         </is>
       </c>
     </row>
@@ -10612,12 +10612,12 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>eau pétillante ou soda tonique</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>citron</t>
+          <t>eau pétillante aromatisée la fraise</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>eau pétillante aromatisée la fraise</t>
+          <t>eau pétillante saveur pamplemousse</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>eau pétillante saveur pamplemousse</t>
+          <t>eau pétillante aromatisée la fraise</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>eau pétillante aromatisée la fraise</t>
+          <t>eau pétillante saveur pamplemousse la croix</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>eau pétillante saveur pamplemousse la croix</t>
+          <t>eau pétillante ou vin mousseux</t>
         </is>
       </c>
     </row>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>eau pétillante ou vin mousseux</t>
+          <t>eau pétillante ou soda au gingembre</t>
         </is>
       </c>
     </row>
@@ -10689,473 +10689,1465 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>eau pétillante ou soda au gingembre</t>
+          <t>eau pétillante ou soda tonique</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>eau pétillante ou soda tonique</t>
+          <t>part jus frais</t>
         </is>
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>eau pétillante ou soda tonique</t>
+          <t>part jus frais</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>part jus frais</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr">
-        <is>
-          <t>part jus frais</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>grosse citrouille en guise bol punch</t>
-        </is>
-      </c>
-      <c r="B858" t="inlineStr">
-        <is>
-          <t>grosse citrouille en guise bol punch</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>bâtons cannelle pour les verres</t>
-        </is>
-      </c>
-      <c r="B859" t="inlineStr">
-        <is>
-          <t>bâtons cannelle pour les verres</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>tasse et framboises fraîches</t>
-        </is>
-      </c>
-      <c r="B860" t="inlineStr">
-        <is>
-          <t>tasse petits fruits bleuets framboises fraises</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>tasse et framboises fraîches</t>
-        </is>
-      </c>
-      <c r="B861" t="inlineStr">
-        <is>
-          <t>tasse et framboises fraîches</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
-        </is>
-      </c>
-      <c r="B862" t="inlineStr">
-        <is>
-          <t>au fruit la passion club</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
-        </is>
-      </c>
-      <c r="B863" t="inlineStr">
-        <is>
-          <t>sauce anglaise</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>sauce anglaise</t>
-        </is>
-      </c>
-      <c r="B864" t="inlineStr">
-        <is>
-          <t>sauce anglaise</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
-        </is>
-      </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>sauce épicée légèrement fumée comme la</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
-        </is>
-      </c>
-      <c r="B866" t="inlineStr">
-        <is>
-          <t>sauce piquante</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
-        </is>
-      </c>
-      <c r="B867" t="inlineStr">
-        <is>
-          <t>sauce piquante</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>tomates cerises</t>
-        </is>
-      </c>
-      <c r="B868" t="inlineStr">
-        <is>
-          <t>tomates cerises</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B869" t="inlineStr">
-        <is>
-          <t>basilic ou menthe</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B870" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B872" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B873" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B874" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B875" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B876" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B877" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>basilic</t>
-        </is>
-      </c>
-      <c r="B878" t="inlineStr">
-        <is>
-          <t>basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>feuilles basilic</t>
-        </is>
-      </c>
-      <c r="B879" t="inlineStr">
-        <is>
-          <t>feuilles basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>feuilles basilic</t>
-        </is>
-      </c>
-      <c r="B880" t="inlineStr">
-        <is>
-          <t>feuilles basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>feuilles basilic</t>
-        </is>
-      </c>
-      <c r="B881" t="inlineStr">
-        <is>
-          <t>feuilles basilic</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
-      <c r="B882" t="inlineStr">
-        <is>
-          <t>tranche pamplemousse et tête menthe pour les verres</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
-      <c r="B883" t="inlineStr">
-        <is>
-          <t>tranches et étoiles pour les verres</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
-      <c r="B884" t="inlineStr">
-        <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
-      <c r="B885" t="inlineStr">
-        <is>
-          <t>tranches concombre</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
-      <c r="B886" t="inlineStr">
-        <is>
-          <t>tranches pomme</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="B887" t="inlineStr">
-        <is>
-          <t>cannelle râpée</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="B888" t="inlineStr">
-        <is>
-          <t>cannelle râpée</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="B889" t="inlineStr">
-        <is>
-          <t>cannelle râpée</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="B890" t="inlineStr">
-        <is>
-          <t>cannelle</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="B891" t="inlineStr">
-        <is>
-          <t>cannelle</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>cannelle</t>
-        </is>
-      </c>
-      <c r="B892" t="inlineStr">
-        <is>
-          <t>cannelle</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>boisson gazeuse au citron ou</t>
-        </is>
-      </c>
-      <c r="B893" t="inlineStr">
-        <is>
-          <t>boisson gazeuse au citron ou</t>
-        </is>
-      </c>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>banane</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr"/>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr"/>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr"/>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr"/>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr"/>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr"/>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr"/>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr"/>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr"/>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr"/>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr"/>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr"/>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr"/>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr"/>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr"/>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr"/>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr"/>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr"/>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr"/>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr"/>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr"/>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr"/>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr"/>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr"/>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr"/>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr"/>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr"/>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr"/>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr"/>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr"/>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr"/>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr"/>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr"/>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr"/>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr"/>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr"/>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr"/>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr"/>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr"/>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr"/>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr"/>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr"/>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr"/>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr"/>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr"/>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr"/>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr"/>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr"/>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr"/>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr"/>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr"/>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr"/>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr"/>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol punch</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol punch</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>bâtons cannelle pour les verres</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>bâtons cannelle pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>tasse et framboises fraîches</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>tasse petits fruits bleuets framboises fraises</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>tasse et framboises fraîches</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>tasse et framboises fraîches</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>au fruit la passion club</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>sauce épicée légèrement fumée comme la</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>tomates cerises</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>tomates cerises</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>basilic ou menthe</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>tranche pamplemousse et tête menthe pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>tranches et étoiles pour les verres</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>tranches concombre</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>cannelle râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>cannelle râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>cannelle râpée</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
           <t>boisson gazeuse au citron ou</t>
         </is>
       </c>
-      <c r="B894" t="inlineStr">
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>boisson gazeuse au citron ou</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>boisson gazeuse au citron ou</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
         <is>
           <t>boisson gazeuse au citron ou</t>
         </is>
